--- a/Jupyter Notebooks/Test.xlsx
+++ b/Jupyter Notebooks/Test.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IP Addresses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +426,58 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Jupyter Notebooks/Test.xlsx
+++ b/Jupyter Notebooks/Test.xlsx
@@ -1,36 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muellergroup-my.sharepoint.com/personal/christopher_davies1_muller_co_uk/Documents/Documents/Projects/Network-Programmability/Jupyter Notebooks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_46DD205B9E8AAD8AD6E671A5F06BDBE96D7F415F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41793DF9-0B98-4570-AD62-DFA15E883161}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Vlan1</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>Hostname1</t>
+  </si>
+  <si>
+    <t>Test1.com</t>
+  </si>
+  <si>
+    <t>Vlan2</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>Hostname2</t>
+  </si>
+  <si>
+    <t>Test2.com</t>
+  </si>
+  <si>
+    <t>Vlan3</t>
+  </si>
+  <si>
+    <t>192.168.0.3</t>
+  </si>
+  <si>
+    <t>Hostname3</t>
+  </si>
+  <si>
+    <t>Test3.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,80 +94,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,54 +396,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
